--- a/public/group_jtg.xlsx
+++ b/public/group_jtg.xlsx
@@ -529,15 +529,108 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>320041</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>200329</xdr:rowOff>
+      <xdr:rowOff>248504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>746759</xdr:rowOff>
+      <xdr:rowOff>787237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337561" y="9141044"/>
+          <a:ext cx="533399" cy="538733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>96602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586798</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>784860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4440060" y="8989142"/>
+          <a:ext cx="688258" cy="688258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>319542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>858275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,8 +653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3192780" y="9092869"/>
-          <a:ext cx="541020" cy="546430"/>
+          <a:off x="3771900" y="18097002"/>
+          <a:ext cx="533399" cy="538733"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,16 +665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>264300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>124740</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1430159</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>12840</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2118417</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>863518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -604,101 +697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4805820" y="9017280"/>
-          <a:ext cx="680580" cy="680580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>319505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>858239</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3787140" y="18096965"/>
-          <a:ext cx="533400" cy="538734"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1567320</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>871080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5278260" y="17967960"/>
-          <a:ext cx="680580" cy="680580"/>
+          <a:off x="5141099" y="17952720"/>
+          <a:ext cx="688258" cy="688258"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -8030,8 +8030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -14587,8 +14587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>

--- a/public/group_jtg.xlsx
+++ b/public/group_jtg.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="540" windowWidth="14112" windowHeight="10068"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="130407"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,14 +200,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -217,57 +222,65 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -286,34 +299,40 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF969696"/>
+      <color indexed="55"/>
       <name val="宋体"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,29 +455,29 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -510,7 +529,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -550,7 +569,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -594,7 +613,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -643,7 +662,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -687,7 +706,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -996,22 +1015,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,27 +1119,27 @@
         <v>11</v>
       </c>
       <c r="C8" s="25">
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="16.8" customHeight="1">
+    <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="25">
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:7" ht="17.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1259,7 +1278,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="28.2" customHeight="1">
+    <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
         <v>44</v>
@@ -8018,32 +8037,37 @@
       <c r="G986" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="22"/>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H1025"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8072,7 +8096,7 @@
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="39" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -8704,7 +8728,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
     </row>
-    <row r="50" spans="1:8" ht="62.4" customHeight="1">
+    <row r="50" spans="1:8" ht="62.5" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -14577,25 +14601,30 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="30.69921875" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14609,7 +14638,7 @@
     <row r="2" spans="1:3" ht="21" customHeight="1">
       <c r="A2" s="44" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14636,7 +14665,7 @@
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="16">
         <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>47</v>
@@ -14648,7 +14677,7 @@
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
       <c r="A6" s="16">
         <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>42349</v>
+        <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>33</v>
@@ -14660,7 +14689,7 @@
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
       <c r="A7" s="16">
         <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>42350</v>
+        <v>43081</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -14668,7 +14697,7 @@
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
       <c r="A8" s="16">
         <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>42351</v>
+        <v>43082</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -14676,7 +14705,7 @@
     <row r="9" spans="1:3" ht="42" customHeight="1">
       <c r="A9" s="16">
         <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>42352</v>
+        <v>43083</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -14684,7 +14713,7 @@
     <row r="10" spans="1:3" ht="42" customHeight="1">
       <c r="A10" s="16">
         <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>42353</v>
+        <v>43084</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -14692,7 +14721,7 @@
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
       <c r="A11" s="16">
         <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>42354</v>
+        <v>43085</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -14700,7 +14729,7 @@
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
       <c r="A12" s="16">
         <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>42355</v>
+        <v>43086</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -14708,7 +14737,7 @@
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
       <c r="A13" s="16">
         <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>42356</v>
+        <v>43087</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -14716,7 +14745,7 @@
     <row r="14" spans="1:3" ht="42" customHeight="1">
       <c r="A14" s="16">
         <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>42357</v>
+        <v>43088</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -14724,7 +14753,7 @@
     <row r="15" spans="1:3" ht="42" customHeight="1">
       <c r="A15" s="16">
         <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>42358</v>
+        <v>43089</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -14732,7 +14761,7 @@
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
       <c r="A16" s="16">
         <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>42359</v>
+        <v>43090</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -14740,7 +14769,7 @@
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
       <c r="A17" s="16">
         <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>42360</v>
+        <v>43091</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -14748,7 +14777,7 @@
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
       <c r="A18" s="16">
         <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>42361</v>
+        <v>43092</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -14756,7 +14785,7 @@
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
       <c r="A19" s="16">
         <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>42362</v>
+        <v>43093</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -14764,7 +14793,7 @@
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
       <c r="A20" s="16">
         <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -14873,7 +14902,7 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="39.6" customHeight="1">
+    <row r="34" spans="1:3" ht="39.5" customHeight="1">
       <c r="A34" s="19" t="str">
         <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
         <v/>
@@ -14881,7 +14910,7 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" ht="40.799999999999997" customHeight="1">
+    <row r="35" spans="1:3" ht="40.75" customHeight="1">
       <c r="A35" s="20" t="str">
         <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
         <v/>
@@ -14918,7 +14947,7 @@
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
     </row>
-    <row r="40" spans="1:3" ht="73.8" customHeight="1">
+    <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
@@ -19740,6 +19769,7 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
@@ -19748,8 +19778,13 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/group_jtg.xlsx
+++ b/public/group_jtg.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>同上</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -569,7 +563,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -613,7 +607,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -662,7 +656,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -706,7 +700,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1019,7 +1013,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1106,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1148,12 +1142,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1193,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1206,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1219,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1229,10 +1219,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1242,10 +1232,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1255,10 +1245,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1268,10 +1258,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1281,10 +1271,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1294,10 +1284,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8038,9 +8028,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8734,7 +8721,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -14668,7 +14655,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
@@ -14951,7 +14938,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -19769,7 +19756,6 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>

--- a/public/group_jtg.xlsx
+++ b/public/group_jtg.xlsx
@@ -179,22 +179,25 @@
     <t>1959年9月27日</t>
   </si>
   <si>
-    <t>〒160-0023東京都新宿区西新宿1-22-2 新宿サンエ－ビル15階</t>
-  </si>
-  <si>
     <t>03-5325-6288</t>
   </si>
   <si>
+    <t>〒160-0023東京都新宿区西新宿7-5-6 グリーン西新宿ビル4階</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
     <t>会社名:  ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：〒東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>会社名: ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
 </sst>
 </file>
@@ -484,9 +487,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -497,6 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1215,10 +1218,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="1"/>
@@ -1228,10 +1231,10 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="1"/>
@@ -1241,10 +1244,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="1"/>
@@ -1254,10 +1257,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="1"/>
@@ -1267,10 +1270,10 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="1"/>
@@ -1280,11 +1283,11 @@
     </row>
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>52</v>
+      <c r="C23" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1293,11 +1296,11 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>53</v>
+      <c r="C24" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8054,8 +8057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -8237,7 +8240,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8250,7 +8253,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8263,7 +8266,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8276,7 +8279,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8289,7 +8292,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8302,7 +8305,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8315,7 +8318,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="18" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8328,7 +8331,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8341,7 +8344,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8354,7 +8357,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8367,7 +8370,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="22" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8380,7 +8383,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="23" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8393,7 +8396,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="24" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8406,7 +8409,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="25" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8419,7 +8422,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="26" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8432,7 +8435,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="27" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8445,7 +8448,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8458,7 +8461,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="29" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8471,7 +8474,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="30" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8484,7 +8487,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="31" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8497,7 +8500,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8510,7 +8513,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="33" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A33" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8523,7 +8526,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A34" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8536,7 +8539,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="35" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8549,7 +8552,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="36" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A36" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8562,7 +8565,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="37" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A37" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8575,7 +8578,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="38" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A38" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8588,7 +8591,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="39" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A39" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8601,7 +8604,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="40" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A40" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8614,7 +8617,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A41" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14617,7 +14620,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -14652,13 +14655,13 @@
       <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14950,7 +14953,7 @@
     <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="33" t="s">
         <v>55</v>
       </c>
     </row>

--- a/public/group_jtg.xlsx
+++ b/public/group_jtg.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -128,6 +128,12 @@
     <t>同上</t>
   </si>
   <si>
+    <t>http://123.56.136.55/code</t>
+  </si>
+  <si>
+    <t>※编号请查询</t>
+  </si>
+  <si>
     <t>性别</t>
   </si>
   <si>
@@ -173,22 +179,25 @@
     <t>1959年9月27日</t>
   </si>
   <si>
-    <t>〒160-0023東京都新宿区西新宿1-22-2 新宿サンエ－ビル15階</t>
-  </si>
-  <si>
     <t>03-5325-6288</t>
   </si>
   <si>
+    <t>〒160-0023東京都新宿区西新宿7-5-6 グリーン西新宿ビル4階</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
     <t>会社名:  ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：〒東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>会社名: ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
 </sst>
 </file>
@@ -478,9 +487,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -491,6 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,7 +572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -607,7 +616,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -656,7 +665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -700,7 +709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1013,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1100,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1142,8 +1151,12 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1183,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1196,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1205,11 +1218,11 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>48</v>
+      <c r="C18" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1218,11 +1231,11 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
-        <v>35</v>
+      <c r="B19" s="28" t="s">
+        <v>37</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>36</v>
+      <c r="C19" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1231,11 +1244,11 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="29" t="s">
-        <v>37</v>
+      <c r="B20" s="28" t="s">
+        <v>39</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>49</v>
+      <c r="C20" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1244,11 +1257,11 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29" t="s">
-        <v>38</v>
+      <c r="B21" s="28" t="s">
+        <v>40</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>39</v>
+      <c r="C21" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1257,11 +1270,11 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="29" t="s">
-        <v>40</v>
+      <c r="B22" s="28" t="s">
+        <v>42</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>41</v>
+      <c r="C22" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1270,11 +1283,11 @@
     </row>
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
-        <v>42</v>
+      <c r="B23" s="30" t="s">
+        <v>44</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>50</v>
+      <c r="C23" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1283,11 +1296,11 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="30" t="s">
-        <v>43</v>
+      <c r="B24" s="29" t="s">
+        <v>45</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>51</v>
+      <c r="C24" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8028,6 +8041,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8041,8 +8057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -8224,7 +8240,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8237,7 +8253,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8250,7 +8266,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8263,7 +8279,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8276,7 +8292,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8289,7 +8305,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8302,7 +8318,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="18" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8315,7 +8331,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8328,7 +8344,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8341,7 +8357,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8354,7 +8370,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="22" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8367,7 +8383,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="23" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8380,7 +8396,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="24" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8393,7 +8409,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="25" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8406,7 +8422,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="26" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8419,7 +8435,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="27" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8432,7 +8448,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8445,7 +8461,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="29" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8458,7 +8474,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="30" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8471,7 +8487,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="31" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8484,7 +8500,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="32" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8497,7 +8513,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="33" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A33" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8510,7 +8526,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A34" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8523,7 +8539,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="35" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8536,7 +8552,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="36" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A36" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8549,7 +8565,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="37" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A37" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8562,7 +8578,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="38" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A38" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8575,7 +8591,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="39" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A39" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8588,7 +8604,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="40" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A40" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8601,7 +8617,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A41" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8721,7 +8737,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -14604,7 +14620,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -14639,13 +14655,13 @@
       <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14655,7 +14671,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
@@ -14937,8 +14953,8 @@
     <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="28" t="s">
-        <v>53</v>
+      <c r="C40" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -19756,6 +19772,7 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>

--- a/public/group_jtg.xlsx
+++ b/public/group_jtg.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>同上</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -572,7 +566,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +610,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +659,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +703,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1022,7 +1016,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1109,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1151,12 +1145,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1196,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1209,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1222,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1232,10 +1222,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1245,10 +1235,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,10 +1248,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1271,10 +1261,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1284,10 +1274,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1297,10 +1287,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8041,9 +8031,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8737,7 +8724,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -14671,7 +14658,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
@@ -14954,7 +14941,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -19772,7 +19759,6 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
